--- a/sentencas.xlsx
+++ b/sentencas.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\INSPER\Engenharia\7-Semestre\PLN\Chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36076BDB-21EB-41D7-9A5A-8D3F95FD93F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469B6A73-3C4A-456C-94B3-350DF4CB73BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{ECE571FA-16FF-4D53-8986-24D5BA78E381}"/>
+    <workbookView xWindow="8124" yWindow="-17388" windowWidth="30936" windowHeight="16896" xr2:uid="{ECE571FA-16FF-4D53-8986-24D5BA78E381}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$451</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="447">
   <si>
     <t>Intenção</t>
   </si>
@@ -168,9 +168,6 @@
     <t>ligue a luz</t>
   </si>
   <si>
-    <t>FoxBot esta calor?</t>
-  </si>
-  <si>
     <t>está nublado hoje</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
     <t>Amanhã vai fazer calor?</t>
   </si>
   <si>
-    <t>Como estará o clima na segunda?</t>
-  </si>
-  <si>
     <t>Aumente a temperatura do ar condicionado para 22 graus</t>
   </si>
   <si>
@@ -363,9 +357,6 @@
     <t>Quanto tenho na poupança?</t>
   </si>
   <si>
-    <t>Tá quantos graus agora?</t>
-  </si>
-  <si>
     <t>Como está a minha conta bancária?</t>
   </si>
   <si>
@@ -417,15 +408,9 @@
     <t>Levo roupa de frio?</t>
   </si>
   <si>
-    <t>Qual a previsão de hoje?</t>
-  </si>
-  <si>
     <t>Qual a previsão para o final de semana?</t>
   </si>
   <si>
-    <t>Mostre a previsão do tempo</t>
-  </si>
-  <si>
     <t>Qual a probabilidade de chuva?</t>
   </si>
   <si>
@@ -585,9 +570,6 @@
     <t>Posso ir as compras com o saldo que tenho?</t>
   </si>
   <si>
-    <t>Vai esquentar hoje?</t>
-  </si>
-  <si>
     <t>Existe a chance de nevar hoje?</t>
   </si>
   <si>
@@ -597,9 +579,6 @@
     <t>Esse final de semana vai tá bom pra praia?</t>
   </si>
   <si>
-    <t>Hoje vai chover?</t>
-  </si>
-  <si>
     <t>É melhor levar um casaco?</t>
   </si>
   <si>
@@ -711,9 +690,6 @@
     <t>Mostra a minha grana</t>
   </si>
   <si>
-    <t>Como vai tá de calor essa semana?</t>
-  </si>
-  <si>
     <t>Vou passar calor hoje?</t>
   </si>
   <si>
@@ -948,9 +924,6 @@
     <t>Será que vai tá muito quente final de tarde?</t>
   </si>
   <si>
-    <t>Vai fazer frio ou calor amanhã?</t>
-  </si>
-  <si>
     <t>Hoje vai estar quente ou frio?</t>
   </si>
   <si>
@@ -1014,9 +987,6 @@
     <t>Posso gastar sem culpa?</t>
   </si>
   <si>
-    <t>Que escuridão! Liga a luz</t>
-  </si>
-  <si>
     <t>Foxbot, esfria um pouco o quarto</t>
   </si>
   <si>
@@ -1068,9 +1038,6 @@
     <t>Será que tenho grana pro resto do mês?</t>
   </si>
   <si>
-    <t>Refresque o ambiente</t>
-  </si>
-  <si>
     <t>Qual o valor que eu tenho em conta?</t>
   </si>
   <si>
@@ -1081,6 +1048,336 @@
   </si>
   <si>
     <t>Será que tenho dinheiro pra pagar as contas esse mês?</t>
+  </si>
+  <si>
+    <t>Não sei</t>
+  </si>
+  <si>
+    <t>Quais os meus compromissos de hoje?</t>
+  </si>
+  <si>
+    <t>Quanto foi o jogo do Palmeiras?</t>
+  </si>
+  <si>
+    <t>Mostre uma foto do Neymar</t>
+  </si>
+  <si>
+    <t>Quem ganhou o último BBB?</t>
+  </si>
+  <si>
+    <t>Consulte o número de mortes por coronavírus hoje</t>
+  </si>
+  <si>
+    <t>O Palmeiras tem mundial?</t>
+  </si>
+  <si>
+    <t>Quando foi o último título do São Paulo?</t>
+  </si>
+  <si>
+    <t>Conte uma piada</t>
+  </si>
+  <si>
+    <t>Quem é a Gabi da AE4?</t>
+  </si>
+  <si>
+    <t>O Matheus é um autômato?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como faço para baixar RAM? </t>
+  </si>
+  <si>
+    <t>Você me ama?</t>
+  </si>
+  <si>
+    <t>Como faço para aumentar meu pênis?</t>
+  </si>
+  <si>
+    <t>Por que o Ribamar não é da seleção?</t>
+  </si>
+  <si>
+    <t>Receita de miojo</t>
+  </si>
+  <si>
+    <t>De que cookie você gosta?</t>
+  </si>
+  <si>
+    <t>Você acredita em Deus?</t>
+  </si>
+  <si>
+    <t>Foxbot, o Acre existe?</t>
+  </si>
+  <si>
+    <t>Foxbot, toque Grupo Menos é Mais</t>
+  </si>
+  <si>
+    <t>Mostre fotos do carnaval passado</t>
+  </si>
+  <si>
+    <t>Vacina transforma em jacaré?</t>
+  </si>
+  <si>
+    <t>O que é um mamaco?</t>
+  </si>
+  <si>
+    <t>Por que não escovar os dentes com Hipoglós?</t>
+  </si>
+  <si>
+    <t>Foxbot, bora fumar um?</t>
+  </si>
+  <si>
+    <t>Foxbot, toque Thiaguinho</t>
+  </si>
+  <si>
+    <t>Me acorde amanhã às 9 horas</t>
+  </si>
+  <si>
+    <t>Foxbot, coloque um alarme para amanhã às 7h30</t>
+  </si>
+  <si>
+    <t>Malboro é um bom pré treino?</t>
+  </si>
+  <si>
+    <t>Foxbot, ligue o cronômetro</t>
+  </si>
+  <si>
+    <t>Foxbot, ligue para a maravilhosa</t>
+  </si>
+  <si>
+    <t>Abra a câmera</t>
+  </si>
+  <si>
+    <t>Foxbot, quantos banhos a Viih Tube toma por semana?</t>
+  </si>
+  <si>
+    <t>Foxbot, por que foram comer o morcego?</t>
+  </si>
+  <si>
+    <t>Procure vídeos do Ronaldinho</t>
+  </si>
+  <si>
+    <t>Como colocar uma camisinha?</t>
+  </si>
+  <si>
+    <t>É necessário mexer o macarrão enquanto cozinha?</t>
+  </si>
+  <si>
+    <t>Qual é o próximo compromisso do dia?</t>
+  </si>
+  <si>
+    <t>Por que o Thiago Leifert parece um sapatênis?</t>
+  </si>
+  <si>
+    <t>O que fazer agora que acabou a água?</t>
+  </si>
+  <si>
+    <t>Tem alguma música ruim do Barões da Pisadinha?</t>
+  </si>
+  <si>
+    <t>Amor ou o litrão?</t>
+  </si>
+  <si>
+    <t>Quem é nóia é imune ao coronavírus?</t>
+  </si>
+  <si>
+    <t>Tutorial de como enganar um agiota</t>
+  </si>
+  <si>
+    <t>Como saber se ela gosta de mim?</t>
+  </si>
+  <si>
+    <t>Baixar tinta de impressora</t>
+  </si>
+  <si>
+    <t>Como ficar rico com daytrade?</t>
+  </si>
+  <si>
+    <t>O que é quarentena?</t>
+  </si>
+  <si>
+    <t>Foxbot, meu colesterol está alto?</t>
+  </si>
+  <si>
+    <t>Qual é o almoço de hoje?</t>
+  </si>
+  <si>
+    <t>Quantos anos vive uma lagosta?</t>
+  </si>
+  <si>
+    <t>Por que liga da justiça é ruim?</t>
+  </si>
+  <si>
+    <t>Mostre a nota de Corra no IMDB</t>
+  </si>
+  <si>
+    <t>Como prender a respiração?</t>
+  </si>
+  <si>
+    <t>Quando foi a última vez que tomei banho?</t>
+  </si>
+  <si>
+    <t>Por que existem pessoas que riem como porcos?</t>
+  </si>
+  <si>
+    <t>Onde encontro um dodo de estimação?</t>
+  </si>
+  <si>
+    <t>O que são mulheres-sapiens?</t>
+  </si>
+  <si>
+    <t>Postos de gasolina perto de mim</t>
+  </si>
+  <si>
+    <t>Quero um milkshake de ovomaltine</t>
+  </si>
+  <si>
+    <t>Por que curva de rio acumula lixo?</t>
+  </si>
+  <si>
+    <t>Toque minha playlist de funk</t>
+  </si>
+  <si>
+    <t>O que é trap?</t>
+  </si>
+  <si>
+    <t>Quem é Carlos Adão?</t>
+  </si>
+  <si>
+    <t>Qual o nome do gorila que morreu em 2016?</t>
+  </si>
+  <si>
+    <t>Como tratar queimaduras de sol?</t>
+  </si>
+  <si>
+    <t>Qual a altura máxima de um anão?</t>
+  </si>
+  <si>
+    <t>Diga a rota para o Maracanã</t>
+  </si>
+  <si>
+    <t>Coronavac engravida?</t>
+  </si>
+  <si>
+    <t>Como tá o câmbio de dólar pra real?</t>
+  </si>
+  <si>
+    <t>Como saber se fui hackeado?</t>
+  </si>
+  <si>
+    <t>Foxbot, marque dentista para amanhã às 10h</t>
+  </si>
+  <si>
+    <t>Foxbot, ligue a impressora</t>
+  </si>
+  <si>
+    <t>Foxbot, quantas calorias eu gastei hoje?</t>
+  </si>
+  <si>
+    <t>Diminua o volume da música</t>
+  </si>
+  <si>
+    <t>Foxbot, reserve uma mesa no Varanda para as 19h.</t>
+  </si>
+  <si>
+    <t>Foxbot, acesse o site da Netshoes</t>
+  </si>
+  <si>
+    <t>Como se fala eu amo você em russo?</t>
+  </si>
+  <si>
+    <t>Foxbot, quando é o próximo show do Alok?</t>
+  </si>
+  <si>
+    <t>Onde fica o Taj Mahal?</t>
+  </si>
+  <si>
+    <t>Foxbot, quanto está uma passagem para Miami?</t>
+  </si>
+  <si>
+    <t>Foxbot, quantas calorias tem uma torta de limão?</t>
+  </si>
+  <si>
+    <t>Foxbot, mande uma mensagem para a minha irmã.</t>
+  </si>
+  <si>
+    <t>Hoje tem jogo do Barcelona?</t>
+  </si>
+  <si>
+    <t>Marque uma consulta com o meu médico para semana que vem.</t>
+  </si>
+  <si>
+    <t>Marque uma reunião com o estagiário para amanhã as 17 horas</t>
+  </si>
+  <si>
+    <t>Quanto está o jogo do PSG?</t>
+  </si>
+  <si>
+    <t>Ligue um timer por 15 minutos</t>
+  </si>
+  <si>
+    <t>Foxbot, pare o cronômetro</t>
+  </si>
+  <si>
+    <t>mostre uma receita de caipirinha</t>
+  </si>
+  <si>
+    <t>Foxbot, me mostre uma receita de bolo</t>
+  </si>
+  <si>
+    <t>Mostre a meus compromissos para a semana</t>
+  </si>
+  <si>
+    <t>Quanto custa uma Itubaína</t>
+  </si>
+  <si>
+    <t>Mostre o meu próximo compromisso</t>
+  </si>
+  <si>
+    <t>Foxbot, toque uma música de ambiente</t>
+  </si>
+  <si>
+    <t>Quanto está custando uma ação da Cyrela?</t>
+  </si>
+  <si>
+    <t>Quanto tempo o cronômetro está marcando?</t>
+  </si>
+  <si>
+    <t>Foxbot, pare o timer</t>
+  </si>
+  <si>
+    <t>Foxbot, como faço para chegar em casa?</t>
+  </si>
+  <si>
+    <t>Ainda tenho compromissos hoje?</t>
+  </si>
+  <si>
+    <t>Foxbot, qual a melhor rota para chegar em casa?</t>
+  </si>
+  <si>
+    <t>Quantos graus vai fazer amanhã?</t>
+  </si>
+  <si>
+    <t>Diminua a temperatura do ambiente</t>
+  </si>
+  <si>
+    <t>Tá muito claro aqui</t>
+  </si>
+  <si>
+    <t>Estará frio ou calor amanhã?</t>
+  </si>
+  <si>
+    <t>Como vai tá o clima essa semana?</t>
+  </si>
+  <si>
+    <t>Qual a previsão para segunda?</t>
+  </si>
+  <si>
+    <t>Mostre a previsão do tempo de hoje</t>
+  </si>
+  <si>
+    <t>Quantos graus tá fazendo agora?</t>
+  </si>
+  <si>
+    <t>Como vai estar o clima amanhã?</t>
   </si>
 </sst>
 </file>
@@ -1432,16 +1729,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031619DC-5F63-4EA6-8510-49A5575EB083}">
-  <dimension ref="A1:B351"/>
+  <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="B343" sqref="B343"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="32.734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1769,7 +2066,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1777,7 +2074,7 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1793,7 +2090,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1801,7 +2098,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1809,7 +2106,7 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1817,7 +2114,7 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1825,7 +2122,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1833,7 +2130,7 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1841,7 +2138,7 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1849,7 +2146,7 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1857,7 +2154,7 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1865,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1873,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1881,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1889,7 +2186,7 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1897,7 +2194,7 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1905,7 +2202,7 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1913,7 +2210,7 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1921,7 +2218,7 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1929,7 +2226,7 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1937,7 +2234,7 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1945,7 +2242,7 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1953,7 +2250,7 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1961,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1969,7 +2266,7 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1977,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1985,7 +2282,7 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1993,7 +2290,7 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2001,7 +2298,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2009,7 +2306,7 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2017,7 +2314,7 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2025,7 +2322,7 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2033,7 +2330,7 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2041,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2049,7 +2346,7 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2057,7 +2354,7 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2065,7 +2362,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2073,7 +2370,7 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2081,7 +2378,7 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2089,7 +2386,7 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2097,7 +2394,7 @@
         <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2105,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2113,7 +2410,7 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2121,7 +2418,7 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2129,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2137,7 +2434,7 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2145,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2153,7 +2450,7 @@
         <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2161,7 +2458,7 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2169,7 +2466,7 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2177,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2185,7 +2482,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2193,7 +2490,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2201,7 +2498,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2209,7 +2506,7 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2217,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2225,7 +2522,7 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2233,7 +2530,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2241,7 +2538,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2249,7 +2546,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2257,7 +2554,7 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2265,7 +2562,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2273,7 +2570,7 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2281,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2289,7 +2586,7 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2297,7 +2594,7 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2305,7 +2602,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2313,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2321,7 +2618,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2329,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2337,7 +2634,7 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2345,7 +2642,7 @@
         <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2353,7 +2650,7 @@
         <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2361,7 +2658,7 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2369,7 +2666,7 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>108</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2377,7 +2674,7 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2385,7 +2682,7 @@
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2393,7 +2690,7 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2401,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2409,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2417,7 +2714,7 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2425,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2433,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2441,7 +2738,7 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2449,7 +2746,7 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2457,7 +2754,7 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2465,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2473,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2481,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2489,7 +2786,7 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2497,7 +2794,7 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2505,7 +2802,7 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2513,7 +2810,7 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2521,7 +2818,7 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2529,7 +2826,7 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>126</v>
+        <v>443</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2537,7 +2834,7 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2545,7 +2842,7 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>128</v>
+        <v>444</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2553,7 +2850,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2561,7 +2858,7 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2569,7 +2866,7 @@
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2577,7 +2874,7 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2585,7 +2882,7 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2593,7 +2890,7 @@
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2601,7 +2898,7 @@
         <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2609,7 +2906,7 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2617,7 +2914,7 @@
         <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2625,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2633,7 +2930,7 @@
         <v>4</v>
       </c>
       <c r="B149" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2641,7 +2938,7 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2649,7 +2946,7 @@
         <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2657,7 +2954,7 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2665,7 +2962,7 @@
         <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2673,7 +2970,7 @@
         <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2681,7 +2978,7 @@
         <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2689,7 +2986,7 @@
         <v>4</v>
       </c>
       <c r="B156" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2697,7 +2994,7 @@
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2705,7 +3002,7 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2713,7 +3010,7 @@
         <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2721,7 +3018,7 @@
         <v>4</v>
       </c>
       <c r="B160" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2729,7 +3026,7 @@
         <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2737,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2745,7 +3042,7 @@
         <v>4</v>
       </c>
       <c r="B163" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2753,7 +3050,7 @@
         <v>2</v>
       </c>
       <c r="B164" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2761,7 +3058,7 @@
         <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2769,7 +3066,7 @@
         <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2777,7 +3074,7 @@
         <v>4</v>
       </c>
       <c r="B167" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2785,7 +3082,7 @@
         <v>2</v>
       </c>
       <c r="B168" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2793,7 +3090,7 @@
         <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2801,7 +3098,7 @@
         <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2809,7 +3106,7 @@
         <v>4</v>
       </c>
       <c r="B171" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2817,7 +3114,7 @@
         <v>4</v>
       </c>
       <c r="B172" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2825,7 +3122,7 @@
         <v>4</v>
       </c>
       <c r="B173" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2833,7 +3130,7 @@
         <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2841,7 +3138,7 @@
         <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2849,7 +3146,7 @@
         <v>2</v>
       </c>
       <c r="B176" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2857,7 +3154,7 @@
         <v>2</v>
       </c>
       <c r="B177" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2865,7 +3162,7 @@
         <v>2</v>
       </c>
       <c r="B178" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2873,7 +3170,7 @@
         <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2881,7 +3178,7 @@
         <v>2</v>
       </c>
       <c r="B180" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2889,7 +3186,7 @@
         <v>2</v>
       </c>
       <c r="B181" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2897,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B182" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2905,7 +3202,7 @@
         <v>2</v>
       </c>
       <c r="B183" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2913,7 +3210,7 @@
         <v>2</v>
       </c>
       <c r="B184" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2921,7 +3218,7 @@
         <v>4</v>
       </c>
       <c r="B185" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2929,7 +3226,7 @@
         <v>4</v>
       </c>
       <c r="B186" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2937,7 +3234,7 @@
         <v>4</v>
       </c>
       <c r="B187" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2945,7 +3242,7 @@
         <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2953,7 +3250,7 @@
         <v>2</v>
       </c>
       <c r="B189" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2961,7 +3258,7 @@
         <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2969,7 +3266,7 @@
         <v>9</v>
       </c>
       <c r="B191" t="s">
-        <v>182</v>
+        <v>438</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2977,7 +3274,7 @@
         <v>9</v>
       </c>
       <c r="B192" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2985,7 +3282,7 @@
         <v>9</v>
       </c>
       <c r="B193" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2993,7 +3290,7 @@
         <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3001,7 +3298,7 @@
         <v>9</v>
       </c>
       <c r="B195" t="s">
-        <v>186</v>
+        <v>438</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3009,7 +3306,7 @@
         <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3017,7 +3314,7 @@
         <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3025,7 +3322,7 @@
         <v>9</v>
       </c>
       <c r="B198" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3033,7 +3330,7 @@
         <v>4</v>
       </c>
       <c r="B199" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3041,7 +3338,7 @@
         <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3049,7 +3346,7 @@
         <v>9</v>
       </c>
       <c r="B201" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3057,7 +3354,7 @@
         <v>9</v>
       </c>
       <c r="B202" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3065,7 +3362,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3073,7 +3370,7 @@
         <v>2</v>
       </c>
       <c r="B204" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3081,7 +3378,7 @@
         <v>9</v>
       </c>
       <c r="B205" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3089,7 +3386,7 @@
         <v>9</v>
       </c>
       <c r="B206" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3097,7 +3394,7 @@
         <v>9</v>
       </c>
       <c r="B207" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3105,7 +3402,7 @@
         <v>9</v>
       </c>
       <c r="B208" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3113,7 +3410,7 @@
         <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3121,7 +3418,7 @@
         <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3129,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B211" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3137,7 +3434,7 @@
         <v>4</v>
       </c>
       <c r="B212" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3145,7 +3442,7 @@
         <v>9</v>
       </c>
       <c r="B213" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3153,7 +3450,7 @@
         <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3161,7 +3458,7 @@
         <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3169,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3177,7 +3474,7 @@
         <v>2</v>
       </c>
       <c r="B217" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3185,7 +3482,7 @@
         <v>2</v>
       </c>
       <c r="B218" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3193,7 +3490,7 @@
         <v>2</v>
       </c>
       <c r="B219" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3201,7 +3498,7 @@
         <v>2</v>
       </c>
       <c r="B220" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3209,7 +3506,7 @@
         <v>2</v>
       </c>
       <c r="B221" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3217,7 +3514,7 @@
         <v>2</v>
       </c>
       <c r="B222" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3225,7 +3522,7 @@
         <v>4</v>
       </c>
       <c r="B223" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3233,7 +3530,7 @@
         <v>2</v>
       </c>
       <c r="B224" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3241,7 +3538,7 @@
         <v>2</v>
       </c>
       <c r="B225" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3249,7 +3546,7 @@
         <v>9</v>
       </c>
       <c r="B226" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3257,7 +3554,7 @@
         <v>9</v>
       </c>
       <c r="B227" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3265,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="B228" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3273,7 +3570,7 @@
         <v>2</v>
       </c>
       <c r="B229" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3281,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="B230" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3289,7 +3586,7 @@
         <v>2</v>
       </c>
       <c r="B231" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3297,7 +3594,7 @@
         <v>9</v>
       </c>
       <c r="B232" t="s">
-        <v>224</v>
+        <v>442</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3305,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B233" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3313,7 +3610,7 @@
         <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3321,7 +3618,7 @@
         <v>4</v>
       </c>
       <c r="B235" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3329,7 +3626,7 @@
         <v>4</v>
       </c>
       <c r="B236" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3337,7 +3634,7 @@
         <v>4</v>
       </c>
       <c r="B237" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3345,7 +3642,7 @@
         <v>2</v>
       </c>
       <c r="B238" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3353,7 +3650,7 @@
         <v>4</v>
       </c>
       <c r="B239" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3361,7 +3658,7 @@
         <v>9</v>
       </c>
       <c r="B240" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3369,7 +3666,7 @@
         <v>2</v>
       </c>
       <c r="B241" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3377,7 +3674,7 @@
         <v>2</v>
       </c>
       <c r="B242" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3385,7 +3682,7 @@
         <v>2</v>
       </c>
       <c r="B243" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3393,7 +3690,7 @@
         <v>2</v>
       </c>
       <c r="B244" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3401,7 +3698,7 @@
         <v>4</v>
       </c>
       <c r="B245" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3409,7 +3706,7 @@
         <v>4</v>
       </c>
       <c r="B246" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3417,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="B247" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3425,7 +3722,7 @@
         <v>2</v>
       </c>
       <c r="B248" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3433,7 +3730,7 @@
         <v>4</v>
       </c>
       <c r="B249" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3441,7 +3738,7 @@
         <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3449,7 +3746,7 @@
         <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3457,7 +3754,7 @@
         <v>4</v>
       </c>
       <c r="B252" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3465,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="B253" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3473,7 +3770,7 @@
         <v>2</v>
       </c>
       <c r="B254" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3481,7 +3778,7 @@
         <v>9</v>
       </c>
       <c r="B255" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3489,7 +3786,7 @@
         <v>9</v>
       </c>
       <c r="B256" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3497,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B257" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3505,7 +3802,7 @@
         <v>2</v>
       </c>
       <c r="B258" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3513,7 +3810,7 @@
         <v>4</v>
       </c>
       <c r="B259" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3521,7 +3818,7 @@
         <v>4</v>
       </c>
       <c r="B260" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3529,7 +3826,7 @@
         <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3537,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B262" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3545,7 +3842,7 @@
         <v>9</v>
       </c>
       <c r="B263" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3553,7 +3850,7 @@
         <v>9</v>
       </c>
       <c r="B264" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3561,7 +3858,7 @@
         <v>9</v>
       </c>
       <c r="B265" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3569,7 +3866,7 @@
         <v>9</v>
       </c>
       <c r="B266" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3577,7 +3874,7 @@
         <v>9</v>
       </c>
       <c r="B267" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3585,7 +3882,7 @@
         <v>9</v>
       </c>
       <c r="B268" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3593,7 +3890,7 @@
         <v>4</v>
       </c>
       <c r="B269" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3601,7 +3898,7 @@
         <v>4</v>
       </c>
       <c r="B270" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3609,7 +3906,7 @@
         <v>2</v>
       </c>
       <c r="B271" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3617,7 +3914,7 @@
         <v>2</v>
       </c>
       <c r="B272" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3625,7 +3922,7 @@
         <v>2</v>
       </c>
       <c r="B273" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3633,7 +3930,7 @@
         <v>2</v>
       </c>
       <c r="B274" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3641,7 +3938,7 @@
         <v>9</v>
       </c>
       <c r="B275" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3649,7 +3946,7 @@
         <v>9</v>
       </c>
       <c r="B276" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3657,7 +3954,7 @@
         <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3665,7 +3962,7 @@
         <v>4</v>
       </c>
       <c r="B278" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3673,7 +3970,7 @@
         <v>4</v>
       </c>
       <c r="B279" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3681,7 +3978,7 @@
         <v>4</v>
       </c>
       <c r="B280" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3689,7 +3986,7 @@
         <v>4</v>
       </c>
       <c r="B281" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3697,7 +3994,7 @@
         <v>9</v>
       </c>
       <c r="B282" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3705,7 +4002,7 @@
         <v>9</v>
       </c>
       <c r="B283" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3713,7 +4010,7 @@
         <v>9</v>
       </c>
       <c r="B284" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3721,7 +4018,7 @@
         <v>9</v>
       </c>
       <c r="B285" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3729,7 +4026,7 @@
         <v>9</v>
       </c>
       <c r="B286" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3737,7 +4034,7 @@
         <v>9</v>
       </c>
       <c r="B287" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3745,7 +4042,7 @@
         <v>2</v>
       </c>
       <c r="B288" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3753,7 +4050,7 @@
         <v>4</v>
       </c>
       <c r="B289" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3761,7 +4058,7 @@
         <v>9</v>
       </c>
       <c r="B290" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3769,7 +4066,7 @@
         <v>9</v>
       </c>
       <c r="B291" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3777,7 +4074,7 @@
         <v>4</v>
       </c>
       <c r="B292" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3785,7 +4082,7 @@
         <v>2</v>
       </c>
       <c r="B293" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3793,7 +4090,7 @@
         <v>2</v>
       </c>
       <c r="B294" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3801,7 +4098,7 @@
         <v>2</v>
       </c>
       <c r="B295" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3809,7 +4106,7 @@
         <v>4</v>
       </c>
       <c r="B296" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3817,7 +4114,7 @@
         <v>4</v>
       </c>
       <c r="B297" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3825,7 +4122,7 @@
         <v>4</v>
       </c>
       <c r="B298" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3833,7 +4130,7 @@
         <v>9</v>
       </c>
       <c r="B299" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3841,7 +4138,7 @@
         <v>9</v>
       </c>
       <c r="B300" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3849,7 +4146,7 @@
         <v>4</v>
       </c>
       <c r="B301" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3857,7 +4154,7 @@
         <v>9</v>
       </c>
       <c r="B302" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3865,7 +4162,7 @@
         <v>4</v>
       </c>
       <c r="B303" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3873,7 +4170,7 @@
         <v>9</v>
       </c>
       <c r="B304" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3881,7 +4178,7 @@
         <v>9</v>
       </c>
       <c r="B305" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3889,7 +4186,7 @@
         <v>9</v>
       </c>
       <c r="B306" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3897,7 +4194,7 @@
         <v>4</v>
       </c>
       <c r="B307" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3905,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="B308" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3913,7 +4210,7 @@
         <v>4</v>
       </c>
       <c r="B309" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3921,7 +4218,7 @@
         <v>9</v>
       </c>
       <c r="B310" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3929,7 +4226,7 @@
         <v>4</v>
       </c>
       <c r="B311" t="s">
-        <v>343</v>
+        <v>439</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3937,7 +4234,7 @@
         <v>9</v>
       </c>
       <c r="B312" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3945,7 +4242,7 @@
         <v>9</v>
       </c>
       <c r="B313" t="s">
-        <v>303</v>
+        <v>441</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3953,7 +4250,7 @@
         <v>9</v>
       </c>
       <c r="B314" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3961,7 +4258,7 @@
         <v>2</v>
       </c>
       <c r="B315" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3969,7 +4266,7 @@
         <v>2</v>
       </c>
       <c r="B316" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3977,7 +4274,7 @@
         <v>9</v>
       </c>
       <c r="B317" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3985,7 +4282,7 @@
         <v>2</v>
       </c>
       <c r="B318" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3993,7 +4290,7 @@
         <v>9</v>
       </c>
       <c r="B319" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4001,7 +4298,7 @@
         <v>9</v>
       </c>
       <c r="B320" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4009,7 +4306,7 @@
         <v>4</v>
       </c>
       <c r="B321" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4017,7 +4314,7 @@
         <v>9</v>
       </c>
       <c r="B322" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4025,7 +4322,7 @@
         <v>9</v>
       </c>
       <c r="B323" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4033,7 +4330,7 @@
         <v>2</v>
       </c>
       <c r="B324" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4041,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="B325" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4049,7 +4346,7 @@
         <v>9</v>
       </c>
       <c r="B326" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4057,7 +4354,7 @@
         <v>4</v>
       </c>
       <c r="B327" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4065,7 +4362,7 @@
         <v>4</v>
       </c>
       <c r="B328" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4073,7 +4370,7 @@
         <v>9</v>
       </c>
       <c r="B329" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4081,7 +4378,7 @@
         <v>9</v>
       </c>
       <c r="B330" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4089,7 +4386,7 @@
         <v>9</v>
       </c>
       <c r="B331" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4097,7 +4394,7 @@
         <v>2</v>
       </c>
       <c r="B332" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4105,7 +4402,7 @@
         <v>9</v>
       </c>
       <c r="B333" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4113,7 +4410,7 @@
         <v>2</v>
       </c>
       <c r="B334" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4121,7 +4418,7 @@
         <v>4</v>
       </c>
       <c r="B335" t="s">
-        <v>325</v>
+        <v>440</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4129,7 +4426,7 @@
         <v>4</v>
       </c>
       <c r="B336" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4137,7 +4434,7 @@
         <v>2</v>
       </c>
       <c r="B337" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4145,7 +4442,7 @@
         <v>4</v>
       </c>
       <c r="B338" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4153,7 +4450,7 @@
         <v>4</v>
       </c>
       <c r="B339" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4161,7 +4458,7 @@
         <v>9</v>
       </c>
       <c r="B340" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4169,7 +4466,7 @@
         <v>9</v>
       </c>
       <c r="B341" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4177,7 +4474,7 @@
         <v>2</v>
       </c>
       <c r="B342" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4185,7 +4482,7 @@
         <v>2</v>
       </c>
       <c r="B343" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4193,7 +4490,7 @@
         <v>9</v>
       </c>
       <c r="B344" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4201,7 +4498,7 @@
         <v>9</v>
       </c>
       <c r="B345" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4209,7 +4506,7 @@
         <v>4</v>
       </c>
       <c r="B346" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4217,7 +4514,7 @@
         <v>4</v>
       </c>
       <c r="B347" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4225,7 +4522,7 @@
         <v>9</v>
       </c>
       <c r="B348" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4233,7 +4530,7 @@
         <v>2</v>
       </c>
       <c r="B349" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4241,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="B350" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -4249,11 +4546,811 @@
         <v>4</v>
       </c>
       <c r="B351" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A352" t="s">
+        <v>337</v>
+      </c>
+      <c r="B352" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A353" t="s">
+        <v>337</v>
+      </c>
+      <c r="B353" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A354" t="s">
+        <v>337</v>
+      </c>
+      <c r="B354" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A355" t="s">
+        <v>337</v>
+      </c>
+      <c r="B355" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A356" t="s">
+        <v>337</v>
+      </c>
+      <c r="B356" t="s">
         <v>340</v>
       </c>
     </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A357" t="s">
+        <v>337</v>
+      </c>
+      <c r="B357" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A358" t="s">
+        <v>337</v>
+      </c>
+      <c r="B358" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A359" t="s">
+        <v>337</v>
+      </c>
+      <c r="B359" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A360" t="s">
+        <v>337</v>
+      </c>
+      <c r="B360" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A361" t="s">
+        <v>337</v>
+      </c>
+      <c r="B361" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A362" t="s">
+        <v>337</v>
+      </c>
+      <c r="B362" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A363" t="s">
+        <v>337</v>
+      </c>
+      <c r="B363" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A364" t="s">
+        <v>337</v>
+      </c>
+      <c r="B364" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A365" t="s">
+        <v>337</v>
+      </c>
+      <c r="B365" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A366" t="s">
+        <v>337</v>
+      </c>
+      <c r="B366" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A367" t="s">
+        <v>337</v>
+      </c>
+      <c r="B367" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A368" t="s">
+        <v>337</v>
+      </c>
+      <c r="B368" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A369" t="s">
+        <v>337</v>
+      </c>
+      <c r="B369" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A370" t="s">
+        <v>337</v>
+      </c>
+      <c r="B370" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A371" t="s">
+        <v>337</v>
+      </c>
+      <c r="B371" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A372" t="s">
+        <v>337</v>
+      </c>
+      <c r="B372" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A373" t="s">
+        <v>337</v>
+      </c>
+      <c r="B373" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A374" t="s">
+        <v>337</v>
+      </c>
+      <c r="B374" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A375" t="s">
+        <v>337</v>
+      </c>
+      <c r="B375" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A376" t="s">
+        <v>337</v>
+      </c>
+      <c r="B376" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A377" t="s">
+        <v>337</v>
+      </c>
+      <c r="B377" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A378" t="s">
+        <v>337</v>
+      </c>
+      <c r="B378" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A379" t="s">
+        <v>337</v>
+      </c>
+      <c r="B379" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A380" t="s">
+        <v>337</v>
+      </c>
+      <c r="B380" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A381" t="s">
+        <v>337</v>
+      </c>
+      <c r="B381" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A382" t="s">
+        <v>337</v>
+      </c>
+      <c r="B382" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A383" t="s">
+        <v>337</v>
+      </c>
+      <c r="B383" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A384" t="s">
+        <v>337</v>
+      </c>
+      <c r="B384" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A385" t="s">
+        <v>337</v>
+      </c>
+      <c r="B385" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A386" t="s">
+        <v>337</v>
+      </c>
+      <c r="B386" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A387" t="s">
+        <v>337</v>
+      </c>
+      <c r="B387" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A388" t="s">
+        <v>337</v>
+      </c>
+      <c r="B388" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A389" t="s">
+        <v>337</v>
+      </c>
+      <c r="B389" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A390" t="s">
+        <v>337</v>
+      </c>
+      <c r="B390" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A391" t="s">
+        <v>337</v>
+      </c>
+      <c r="B391" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A392" t="s">
+        <v>337</v>
+      </c>
+      <c r="B392" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A393" t="s">
+        <v>337</v>
+      </c>
+      <c r="B393" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A394" t="s">
+        <v>337</v>
+      </c>
+      <c r="B394" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A395" t="s">
+        <v>337</v>
+      </c>
+      <c r="B395" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A396" t="s">
+        <v>337</v>
+      </c>
+      <c r="B396" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A397" t="s">
+        <v>337</v>
+      </c>
+      <c r="B397" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A398" t="s">
+        <v>337</v>
+      </c>
+      <c r="B398" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A399" t="s">
+        <v>337</v>
+      </c>
+      <c r="B399" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A400" t="s">
+        <v>337</v>
+      </c>
+      <c r="B400" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A401" t="s">
+        <v>337</v>
+      </c>
+      <c r="B401" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A402" t="s">
+        <v>337</v>
+      </c>
+      <c r="B402" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A403" t="s">
+        <v>337</v>
+      </c>
+      <c r="B403" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A404" t="s">
+        <v>337</v>
+      </c>
+      <c r="B404" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A405" t="s">
+        <v>337</v>
+      </c>
+      <c r="B405" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A406" t="s">
+        <v>337</v>
+      </c>
+      <c r="B406" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A407" t="s">
+        <v>337</v>
+      </c>
+      <c r="B407" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A408" t="s">
+        <v>337</v>
+      </c>
+      <c r="B408" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A409" t="s">
+        <v>337</v>
+      </c>
+      <c r="B409" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A410" t="s">
+        <v>337</v>
+      </c>
+      <c r="B410" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A411" t="s">
+        <v>337</v>
+      </c>
+      <c r="B411" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A412" t="s">
+        <v>337</v>
+      </c>
+      <c r="B412" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A413" t="s">
+        <v>337</v>
+      </c>
+      <c r="B413" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A414" t="s">
+        <v>337</v>
+      </c>
+      <c r="B414" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A415" t="s">
+        <v>337</v>
+      </c>
+      <c r="B415" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A416" t="s">
+        <v>337</v>
+      </c>
+      <c r="B416" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A417" t="s">
+        <v>337</v>
+      </c>
+      <c r="B417" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A418" t="s">
+        <v>337</v>
+      </c>
+      <c r="B418" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A419" t="s">
+        <v>337</v>
+      </c>
+      <c r="B419" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A420" t="s">
+        <v>337</v>
+      </c>
+      <c r="B420" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A421" t="s">
+        <v>337</v>
+      </c>
+      <c r="B421" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A422" t="s">
+        <v>337</v>
+      </c>
+      <c r="B422" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A423" t="s">
+        <v>337</v>
+      </c>
+      <c r="B423" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A424" t="s">
+        <v>337</v>
+      </c>
+      <c r="B424" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A425" t="s">
+        <v>337</v>
+      </c>
+      <c r="B425" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A426" t="s">
+        <v>337</v>
+      </c>
+      <c r="B426" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A427" t="s">
+        <v>337</v>
+      </c>
+      <c r="B427" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A428" t="s">
+        <v>337</v>
+      </c>
+      <c r="B428" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A429" t="s">
+        <v>337</v>
+      </c>
+      <c r="B429" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A430" t="s">
+        <v>337</v>
+      </c>
+      <c r="B430" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A431" t="s">
+        <v>337</v>
+      </c>
+      <c r="B431" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A432" t="s">
+        <v>337</v>
+      </c>
+      <c r="B432" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A433" t="s">
+        <v>337</v>
+      </c>
+      <c r="B433" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A434" t="s">
+        <v>337</v>
+      </c>
+      <c r="B434" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A435" t="s">
+        <v>337</v>
+      </c>
+      <c r="B435" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A436" t="s">
+        <v>337</v>
+      </c>
+      <c r="B436" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A437" t="s">
+        <v>337</v>
+      </c>
+      <c r="B437" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A438" t="s">
+        <v>337</v>
+      </c>
+      <c r="B438" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A439" t="s">
+        <v>337</v>
+      </c>
+      <c r="B439" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A440" t="s">
+        <v>337</v>
+      </c>
+      <c r="B440" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A441" t="s">
+        <v>337</v>
+      </c>
+      <c r="B441" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A442" t="s">
+        <v>337</v>
+      </c>
+      <c r="B442" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A443" t="s">
+        <v>337</v>
+      </c>
+      <c r="B443" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A444" t="s">
+        <v>337</v>
+      </c>
+      <c r="B444" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A445" t="s">
+        <v>337</v>
+      </c>
+      <c r="B445" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A446" t="s">
+        <v>337</v>
+      </c>
+      <c r="B446" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A447" t="s">
+        <v>337</v>
+      </c>
+      <c r="B447" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A448" t="s">
+        <v>337</v>
+      </c>
+      <c r="B448" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A449" t="s">
+        <v>337</v>
+      </c>
+      <c r="B449" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A450" t="s">
+        <v>337</v>
+      </c>
+      <c r="B450" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A451" t="s">
+        <v>337</v>
+      </c>
+      <c r="B451" t="s">
+        <v>419</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B147" xr:uid="{916C33CF-EA77-47F0-9AD0-C3868635801A}"/>
+  <autoFilter ref="A1:B451" xr:uid="{916C33CF-EA77-47F0-9AD0-C3868635801A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>